--- a/data/georgia_census/kakheti/signagi/population_total.xlsx
+++ b/data/georgia_census/kakheti/signagi/population_total.xlsx
@@ -1368,13 +1368,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B5590E1-BD64-4EF5-A2AE-DF14A394190C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B64EB039-F6C4-437C-A324-9A105874508A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C54B1235-8050-4C6E-8520-34C0C94C5E1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9C5AAA-D10D-4C8E-80F5-2D046EBAFF8C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB6D0E3-3942-4F0A-B47C-7B66E8CE75FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70EA55F2-8305-4CAE-91D0-D95517B32D83}"/>
 </file>